--- a/me/2.training_grunt/1.GruntJS-Set-up-Enviroments.xlsx
+++ b/me/2.training_grunt/1.GruntJS-Set-up-Enviroments.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\2.training_grunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39646833-C7E5-49B3-ADF2-14054A6381F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1539408-4209-42E5-9DDE-C86252603B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="1" r:id="rId1"/>
     <sheet name="Install" sheetId="2" r:id="rId2"/>
+    <sheet name="Create Project 1 " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t xml:space="preserve">GruntJS là một Javascript Task Runner giúp ta thực hiện các công việc lặp đi lặp lại trong quá trình xây </t>
   </si>
@@ -65,16 +66,262 @@
   </si>
   <si>
     <t>npm install -g grunt-cli</t>
+  </si>
+  <si>
+    <t>構成</t>
+  </si>
+  <si>
+    <t>sass-gruntjs-bootstrap</t>
+  </si>
+  <si>
+    <t>2.training_grunt</t>
+  </si>
+  <si>
+    <t>1.Create-Project-1</t>
+  </si>
+  <si>
+    <t>Gruntfile.js</t>
+  </si>
+  <si>
+    <t>package.json</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>Installing Grunt and gruntplugins</t>
+  </si>
+  <si>
+    <t>npm install grunt --save-dev</t>
+  </si>
+  <si>
+    <t>npm install -g npm</t>
+  </si>
+  <si>
+    <t>npm</t>
+  </si>
+  <si>
+    <t>Check package.json is changed</t>
+  </si>
+  <si>
+    <t>    "name": "project_1",</t>
+  </si>
+  <si>
+    <t>    "devDependencies": {</t>
+  </si>
+  <si>
+    <t>        "grunt": "^1.5.3"</t>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <t>check 構成</t>
+  </si>
+  <si>
+    <t>node_modules</t>
+  </si>
+  <si>
+    <t>is added</t>
+  </si>
+  <si>
+    <t>is changed</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>Gruntfile</t>
+  </si>
+  <si>
+    <t>URL: https://gruntjs.com/getting-started</t>
+  </si>
+  <si>
+    <t>module.exports = function(grunt) {</t>
+  </si>
+  <si>
+    <t>    // 01 Config</t>
+  </si>
+  <si>
+    <t>    grunt.initConfig({</t>
+  </si>
+  <si>
+    <t>    });</t>
+  </si>
+  <si>
+    <t>    // 02 Load plugin</t>
+  </si>
+  <si>
+    <t>    // 03 Register task</t>
+  </si>
+  <si>
+    <t>        grunt.log.write('Logging some stuff...').ok();</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>grunt</t>
+  </si>
+  <si>
+    <r>
+      <t>    grunt.registerTask('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>', 'Log some stuff.', function() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Run thực hiện câu lệnh. Cú pháp thực hiện hiện là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grunt + taskName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Trường hợp chỉ chạy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grunt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> thôi thì task </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ thực hiện</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>      pkg: grunt.file.readJSON('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>package.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    "name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>project_1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -200,6 +447,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,6 +998,346 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>294252</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>95010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3BD41B-3230-D93B-FEE5-6EA1E9822B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="46177200"/>
+          <a:ext cx="8180952" cy="1923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190171</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>161810</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BAA0365-40B3-FD72-AF2F-19605FB97D21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="48577500"/>
+          <a:ext cx="2628571" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>55848</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>170967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F025F9C4-F3C8-F094-E426-8C3B5469C202}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3352800"/>
+          <a:ext cx="10419048" cy="3866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584B1813-CFF4-959D-1D4B-15D2EB68B2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="285750" y="1914525"/>
+          <a:ext cx="28575" cy="9410700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>313227</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>75767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{591C7E17-CCA4-0734-E63D-ADC7D95405BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="14897100"/>
+          <a:ext cx="8780952" cy="3466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3380694D-B050-C0A2-BB22-1026C5649501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1343025" y="13906500"/>
+          <a:ext cx="1104900" cy="3752850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17880FF9-F131-C953-B787-D810595286E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="10067925"/>
+          <a:ext cx="2019300" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1131,10 +1722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D450EABA-631D-43D4-B6A2-1E6FA3D8B1D0}">
-  <dimension ref="A2:B232"/>
+  <dimension ref="A2:B255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="K243" sqref="K243"/>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="K259" sqref="K259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,8 +1755,425 @@
         <v>12</v>
       </c>
     </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491C1C5E-03EF-4275-A9EE-2AC0908C8EE0}">
+  <dimension ref="A2:I78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+      <c r="I49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="16"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="7"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="10"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/me/2.training_grunt/1.GruntJS-Set-up-Enviroments.xlsx
+++ b/me/2.training_grunt/1.GruntJS-Set-up-Enviroments.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sass-gruntjs-bootstrap\me\2.training_grunt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1539408-4209-42E5-9DDE-C86252603B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2511F17B-69F2-4BB1-A171-7C03FECE11BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="about" sheetId="1" r:id="rId1"/>
     <sheet name="Install" sheetId="2" r:id="rId2"/>
     <sheet name="Create Project 1 " sheetId="3" r:id="rId3"/>
+    <sheet name="Create Project 2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="68">
   <si>
     <t xml:space="preserve">GruntJS là một Javascript Task Runner giúp ta thực hiện các công việc lặp đi lặp lại trong quá trình xây </t>
   </si>
@@ -305,6 +306,104 @@
       </rPr>
       <t>"</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>    "name": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>project_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>2.Create-Project-2</t>
+  </si>
+  <si>
+    <t>    "name": "project_2",</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>Chứa các mã nguồn làm việc, như các mã lệnh css, html, js</t>
+  </si>
+  <si>
+    <t>Sau khi viết các mã nguồn↑xong thì đóng gói thành sản phẩm và đặt trong production</t>
+  </si>
+  <si>
+    <t>  // 01 Config</t>
+  </si>
+  <si>
+    <t>  grunt.initConfig({</t>
+  </si>
+  <si>
+    <t>  });</t>
+  </si>
+  <si>
+    <t>  // 02 Load plugin</t>
+  </si>
+  <si>
+    <t>  // 03 Register task</t>
+  </si>
+  <si>
+    <t>  grunt.registerTask('log', 'Log some stuff.', function() {</t>
+  </si>
+  <si>
+    <t>      grunt.log.write('Logging some stuff...').ok();</t>
+  </si>
+  <si>
+    <t>Trong mảng này sẽ định nghĩa tên task các công việc mà nó thực hiện</t>
+  </si>
+  <si>
+    <t>    mPkg: grunt.file.readJSON('package.json'),</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  grunt.registerTask('default', </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>grunt log</t>
   </si>
 </sst>
 </file>
@@ -433,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -451,6 +550,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1341,6 +1441,355 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81FA0DFA-863F-475F-B344-8D8F6F455FC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="285750" y="2295525"/>
+          <a:ext cx="28575" cy="7696200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC02528F-80A1-47AA-AFDE-E45FF1B3CAD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="10067925"/>
+          <a:ext cx="2019300" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>27287</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35747C02-46E9-7A0C-8C93-E102C1B7227F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="3733800"/>
+          <a:ext cx="10304762" cy="2714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF75849-477A-F4F5-9337-5A451C9C7D03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2447925" y="13449300"/>
+          <a:ext cx="2447925" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>313302</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>57010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D50A79-495D-A2DA-AD82-AF2CD55D6DF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="14744700"/>
+          <a:ext cx="8180952" cy="1123810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17982</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>161748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435CDA7E-3515-1EF1-F601-3C5A35A2DCCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="619125" y="16459200"/>
+          <a:ext cx="8542857" cy="1419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1364FB-D662-D0DF-28AA-52BD7CE1DE02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1771650" y="13716000"/>
+          <a:ext cx="495300" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1780,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491C1C5E-03EF-4275-A9EE-2AC0908C8EE0}">
   <dimension ref="A2:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,4 +2625,476 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A0BD5A-679B-43F8-98E9-5410B68595A1}">
+  <dimension ref="A2:I86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="5"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="5"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" t="s">
+        <v>34</v>
+      </c>
+      <c r="I44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="5"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="7"/>
+      <c r="I70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>